--- a/biology/Médecine/Michel_Troja/Michel_Troja.xlsx
+++ b/biology/Médecine/Michel_Troja/Michel_Troja.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Troja ou Michele Troya, né à Andria le 23 juin 1747 et mort à Naples le 12 avril 1827 est un médecin italien. Il est l'inventeur du cathéter.
 </t>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa famille le destine à la prêtrise mais depuis son enfance, il est très intéressé par tout ce qui ressemble aux sciences naturelles[1]. Il devient alors étudiant en médecine à Naples, où il passe son doctorat. En 1774, il obtient une bourse pour suivre une formation post-doctorale à Paris où il poursuit la recherche de Henri-Louis Duhamel du Monceau sur la croissance des os[2]. Ses travaux suscitent l'intérêt de Lazzaro Spallanzani.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa famille le destine à la prêtrise mais depuis son enfance, il est très intéressé par tout ce qui ressemble aux sciences naturelles. Il devient alors étudiant en médecine à Naples, où il passe son doctorat. En 1774, il obtient une bourse pour suivre une formation post-doctorale à Paris où il poursuit la recherche de Henri-Louis Duhamel du Monceau sur la croissance des os. Ses travaux suscitent l'intérêt de Lazzaro Spallanzani.
 Membre correspondant de l'Académie des sciences, il écrit cinq articles pour le Supplément à l'Encyclopédie de Diderot et d'Alembert. De retour à Naples en 1779, il est nommé chirurgien de l'hôpital des Incurables de Naples puis professeur d'ophtalmologie à l'université de Naples.
-En 1780, il devient premier chirurgien de Ferdinand Ier des Deux-Siciles, membre de la Chambre du Roi, et « il accompagn[e] ce prince dans tous ses voyages, et pendant que Ferdinand s'amus[e] à la chasse, Troja s'occup[e] de dissection, de botanique de recherches microscopiques, et d'une foule d'autres travaux, auxquels les circonstances lui permett[ent] de se livrer. »[1] 
+En 1780, il devient premier chirurgien de Ferdinand Ier des Deux-Siciles, membre de la Chambre du Roi, et « il accompagn[e] ce prince dans tous ses voyages, et pendant que Ferdinand s'amus[e] à la chasse, Troja s'occup[e] de dissection, de botanique de recherches microscopiques, et d'une foule d'autres travaux, auxquels les circonstances lui permett[ent] de se livrer. » 
 Il est étroitement associé à de nombreux hommes célèbres de son temps : Felice Fontana, Albrecht von Haller, Joseph Lieutaud, Louis Jean-Marie Daubenton, Félix Vicq-d'Azyr, Giovanni Alessandro Brambilla...
-Il travaille avec Fontana, sur les vipères et avec Giuseppe Saverio Poli sur les mollusques[3].
-Troja est l'inventeur d'une sonde vésicale en caoutchouc, le cathéter[4] et l'auteur de plusieurs ouvrages importants sur le remodelage osseux : la première édition est publiée à Paris en 1775. Il écrit un traité sur les maladies des yeux[5] et un autre sur les maladies des voies urinaires[4].
-En 1801, après une violente épidémie de variole à Palerme, il planifie la mise en place de la vaccination de Jenner contre la variole dans le royaume des Deux-Siciles[6].
-En 1799 et 1807, il perd par deux fois ses manuscrits et sa bibliothèque à la suite des pillages qui ont lieu à Naples[1].
+Il travaille avec Fontana, sur les vipères et avec Giuseppe Saverio Poli sur les mollusques.
+Troja est l'inventeur d'une sonde vésicale en caoutchouc, le cathéter et l'auteur de plusieurs ouvrages importants sur le remodelage osseux : la première édition est publiée à Paris en 1775. Il écrit un traité sur les maladies des yeux et un autre sur les maladies des voies urinaires.
+En 1801, après une violente épidémie de variole à Palerme, il planifie la mise en place de la vaccination de Jenner contre la variole dans le royaume des Deux-Siciles.
+En 1799 et 1807, il perd par deux fois ses manuscrits et sa bibliothèque à la suite des pillages qui ont lieu à Naples.
 Il meurt subitement en 1827 à Naples. Il est le père de Carlo Troja et Ferdinando Troya (it), tous deux futurs premiers ministres du royaume des Deux-Siciles.
 </t>
         </is>
@@ -550,7 +564,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bulletin des sciences médicales, Paris, Baillière, 1830, p. 58.
 (it) Modestino Del Gaizo, Della vita e delle opere di Michele Troja: memoria prima, Tocco, 1898, 67 p. (présentation en ligne)
